--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="26">
   <si>
     <t>TC name</t>
   </si>
@@ -36,13 +36,49 @@
     <t>TC03</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Sex</t>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>test01</t>
+  </si>
+  <si>
+    <t>test02</t>
+  </si>
+  <si>
+    <t>test03</t>
+  </si>
+  <si>
+    <t>test04</t>
+  </si>
+  <si>
+    <t>test05</t>
+  </si>
+  <si>
+    <t>test06</t>
+  </si>
+  <si>
+    <t>test07</t>
+  </si>
+  <si>
+    <t>test08</t>
+  </si>
+  <si>
+    <t>test09</t>
   </si>
   <si>
     <t>testing011</t>
@@ -54,28 +90,17 @@
     <t>testing031</t>
   </si>
   <si>
-    <t>TC04</t>
-  </si>
-  <si>
-    <t>TC05</t>
-  </si>
-  <si>
-    <t>TC06</t>
-  </si>
-  <si>
-    <t>TC07</t>
-  </si>
-  <si>
-    <t>TC08</t>
-  </si>
-  <si>
-    <t>TC09</t>
+    <t>test0111</t>
+  </si>
+  <si>
+    <t>test0222</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -404,7 +429,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -425,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -436,10 +461,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -447,76 +472,76 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
